--- a/biology/Botanique/Stictodiscaceae/Stictodiscaceae.xlsx
+++ b/biology/Botanique/Stictodiscaceae/Stictodiscaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stictodiscaceae  sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Stictodiscales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Stictodiscus, composé du préfixe stict- (du grec στικτός / stiktós, « pointillé, tacheté, de couleurs variées »), et du suffixe -disc, disque.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre type Stictodiscus (à ne pas confondre avec le genre Stictocyclus) est décrit comme suit par Greville en 1861 : 
-« Frustules[note 1] simples, discoïdes, divisées par des lignes rayonnantes en de nombreux compartiments plissés. Lignes n'atteignant pas le centre. Compartiments garnis de points lacrymaux transparents bien visibles, ressemblant à des pores. (Chez les quatre espèces typiques, de grands points ponctués dispersés occupent également la partie centrale vierge du disque[1].) »
+« Frustules[note 1] simples, discoïdes, divisées par des lignes rayonnantes en de nombreux compartiments plissés. Lignes n'atteignant pas le centre. Compartiments garnis de points lacrymaux transparents bien visibles, ressemblant à des pores. (Chez les quatre espèces typiques, de grands points ponctués dispersés occupent également la partie centrale vierge du disque.) »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces de Stictodiscus ont été découvertes dans des dépôts sédimentaires des îles Caraïbes de Trinidad et Barbade, et dans l'île grecque d'Égine[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de Stictodiscus ont été découvertes dans des dépôts sédimentaires des îles Caraïbes de Trinidad et Barbade, et dans l'île grecque d'Égine.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (29 juillet 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (29 juillet 2022) :
 Compositus Vekshina, 1960 nom. inval.
 Palaeocompositus U.B.Dehsmukh, S.Blanco &amp; Molinari, 2022
 † Pseudostictodiscus Grunow ex Schmidt et al., 1882
@@ -645,9 +665,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stictodiscaceae Simonsen, 1972[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stictodiscaceae Simonsen, 1972.
 </t>
         </is>
       </c>
@@ -676,7 +698,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simonsen, R. (1972). Ideas for a more natural system of the centric diatoms. Beih. Nova Hedwigia 39: 37-54.</t>
         </is>
